--- a/mentoring-core/health-facility-mapping.xlsx
+++ b/mentoring-core/health-facility-mapping.xlsx
@@ -13,13 +13,14 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$2:$E$116</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$2:$E$116</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$B$2:$E$116</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="151">
   <si>
     <t>Province</t>
   </si>
@@ -418,6 +419,60 @@
   </si>
   <si>
     <t>CS Txalalane</t>
+  </si>
+  <si>
+    <t>Quelimane</t>
+  </si>
+  <si>
+    <t>CS 17 de Setembro</t>
+  </si>
+  <si>
+    <t>CS 24 de Julho</t>
+  </si>
+  <si>
+    <t>CS 4 de Dezembro</t>
+  </si>
+  <si>
+    <t>CS Chabeco</t>
+  </si>
+  <si>
+    <t>CS Coalane</t>
+  </si>
+  <si>
+    <t>CS Incidua</t>
+  </si>
+  <si>
+    <t>CS Inhangulue</t>
+  </si>
+  <si>
+    <t>CS Malanha</t>
+  </si>
+  <si>
+    <t>CS Maquival Rio</t>
+  </si>
+  <si>
+    <t>CS Maquival Sede</t>
+  </si>
+  <si>
+    <t>CS Micajune</t>
+  </si>
+  <si>
+    <t>CS Namuinho</t>
+  </si>
+  <si>
+    <t>CS Penitenciário</t>
+  </si>
+  <si>
+    <t>CS Sagariveira</t>
+  </si>
+  <si>
+    <t>CS Varela</t>
+  </si>
+  <si>
+    <t>CS Zalala</t>
+  </si>
+  <si>
+    <t>HG Quelimane</t>
   </si>
 </sst>
 </file>
@@ -427,7 +482,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -455,6 +510,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -499,13 +559,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -529,10 +593,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:E116"/>
+  <dimension ref="B2:E134"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E115" activeCellId="0" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2155,6 +2219,258 @@
         <v>132</v>
       </c>
     </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B2:E116"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/mentoring-core/health-facility-mapping.xlsx
+++ b/mentoring-core/health-facility-mapping.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steliomo/workspace/mentoring/mentoring-core/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3E8A32F7-236C-244D-B206-F1C39946D3F9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="146" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="146" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$2:$E$116</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$2:$E$116</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$B$2:$E$116</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$B$2:$E$116</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Sheet1!$B$2:$E$116</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -478,11 +482,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -490,22 +491,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -526,7 +512,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -534,82 +520,346 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E134"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E115" activeCellId="0" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.48469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.1530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="9.5"/>
+    <col min="2" max="2" width="12"/>
+    <col min="3" max="3" width="13.1640625"/>
+    <col min="4" max="4" width="16.1640625"/>
+    <col min="5" max="5" width="20"/>
+    <col min="6" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,1607 +873,1607 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="n">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="n">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="0" t="n">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="0" t="n">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="0" t="n">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="0" t="n">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="0" t="n">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="0" t="n">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="0" t="n">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="0" t="n">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="0" t="n">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="E13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="0" t="n">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="E14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="0" t="n">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="0" t="s">
+      <c r="E15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="0" t="n">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="0" t="n">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="0" t="n">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
         <v>2</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="0" t="s">
+      <c r="E18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="0" t="n">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="0" t="s">
+      <c r="E19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="0" t="n">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="0" t="s">
+      <c r="E20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="0" t="n">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
         <v>2</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="0" t="s">
+      <c r="E21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="0" t="n">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
         <v>2</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="0" t="s">
+      <c r="E22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="0" t="n">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="0" t="n">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="0" t="n">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
         <v>3</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="E25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D26" s="0" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="E26" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D27" s="0" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="E27" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D28" s="0" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="0" t="s">
+      <c r="E28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D29" s="0" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="0" t="s">
+      <c r="E29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D30" s="0" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="0" t="s">
+      <c r="E30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D31" s="0" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="0" t="s">
+      <c r="E31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D32" s="0" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="E32" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D33" s="0" t="s">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="0" t="s">
+      <c r="E33" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="D34" s="0" t="s">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="0" t="n">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35">
         <v>5</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="0" t="s">
+      <c r="E35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="0" t="n">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36">
         <v>5</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="0" t="s">
+      <c r="E36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="0" t="n">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37">
         <v>5</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="0" t="s">
+      <c r="E37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="0" t="n">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38">
         <v>5</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="0" t="s">
+      <c r="E38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="0" t="n">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
         <v>5</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="0" t="s">
+      <c r="E39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="0" t="n">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40">
         <v>6</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="0" t="s">
+      <c r="E40" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="0" t="n">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
         <v>6</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="0" t="s">
+      <c r="E41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="0" t="n">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
         <v>6</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="0" t="s">
+      <c r="E42" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="0" t="n">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43">
         <v>6</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="E43" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="0" t="n">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44">
         <v>6</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="E44" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="0" t="n">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
         <v>6</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="E45" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="0" t="n">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46">
         <v>6</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="E46" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="0" t="n">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47">
         <v>7</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>55</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="E47" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="0" t="n">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48">
         <v>7</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="E48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="0" t="n">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
         <v>7</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="D49" t="s">
         <v>55</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="E49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="0" t="n">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50">
         <v>7</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" t="s">
         <v>55</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="E50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="0" t="n">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
         <v>8</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
         <v>60</v>
       </c>
-      <c r="E51" s="0" t="s">
+      <c r="E51" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="0" t="n">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52">
         <v>8</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="0" t="n">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
         <v>8</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="E53" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="0" t="n">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
         <v>8</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="E54" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="0" t="n">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55">
         <v>8</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="E55" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="0" t="n">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56">
         <v>8</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" t="s">
         <v>60</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="E56" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="0" t="n">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57">
         <v>8</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" t="s">
         <v>60</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="E57" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="0" t="n">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58">
         <v>8</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="E58" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="0" t="n">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B59" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59">
         <v>9</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" t="s">
         <v>69</v>
       </c>
-      <c r="E59" s="0" t="s">
+      <c r="E59" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="0" t="n">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60">
         <v>9</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="0" t="s">
+      <c r="E60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="0" t="n">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61">
         <v>9</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="0" t="s">
+      <c r="E61" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="0" t="n">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62">
         <v>9</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="E62" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="0" t="n">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
         <v>9</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="E63" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="0" t="n">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64">
         <v>9</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" t="s">
         <v>69</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="E64" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="0" t="n">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
         <v>10</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" t="s">
         <v>76</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="E65" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="0" t="n">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66">
         <v>10</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" t="s">
         <v>76</v>
       </c>
-      <c r="E66" s="0" t="s">
+      <c r="E66" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="0" t="n">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
         <v>10</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="0" t="s">
+      <c r="E67" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="0" t="n">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
         <v>10</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" t="s">
         <v>76</v>
       </c>
-      <c r="E68" s="0" t="s">
+      <c r="E68" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="0" t="n">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69">
         <v>10</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" t="s">
         <v>76</v>
       </c>
-      <c r="E69" s="0" t="s">
+      <c r="E69" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="0" t="n">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70">
         <v>10</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>76</v>
       </c>
-      <c r="E70" s="0" t="s">
+      <c r="E70" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="0" t="n">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71">
         <v>10</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" t="s">
         <v>76</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="E71" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="0" t="n">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72">
         <v>10</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" t="s">
         <v>76</v>
       </c>
-      <c r="E72" s="0" t="s">
+      <c r="E72" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" s="0" t="n">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73">
         <v>11</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" t="s">
         <v>85</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="E73" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="0" t="n">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B74" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74">
         <v>11</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" t="s">
         <v>85</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="E74" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="0" t="n">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
         <v>11</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" t="s">
         <v>85</v>
       </c>
-      <c r="E75" s="0" t="s">
+      <c r="E75" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="0" t="n">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76">
         <v>11</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" t="s">
         <v>85</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="E76" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="0" t="n">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
         <v>11</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" t="s">
         <v>85</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="E77" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="0" t="n">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
         <v>11</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" t="s">
         <v>85</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="0" t="n">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79">
         <v>11</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" t="s">
         <v>85</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C80" s="0" t="n">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B80" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80">
         <v>11</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" t="s">
         <v>85</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="0" t="n">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81">
         <v>11</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" t="s">
         <v>85</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="0" t="n">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82">
         <v>11</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" t="s">
         <v>85</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C83" s="0" t="n">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
         <v>11</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" t="s">
         <v>85</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="0" t="n">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84">
         <v>11</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" t="s">
         <v>85</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E84" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="0" t="n">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85">
         <v>11</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" t="s">
         <v>85</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="0" t="n">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86">
         <v>11</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" t="s">
         <v>85</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="E86" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="0" t="n">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87">
         <v>11</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" t="s">
         <v>85</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C88" s="0" t="n">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88">
         <v>11</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" t="s">
         <v>85</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="0" t="n">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89">
         <v>11</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" t="s">
         <v>85</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="0" t="n">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B90" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90">
         <v>11</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" t="s">
         <v>85</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="0" t="n">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91">
         <v>11</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" t="s">
         <v>85</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="0" t="n">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92">
         <v>12</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" t="s">
         <v>105</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="E92" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="0" t="n">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
         <v>12</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" t="s">
         <v>105</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="E93" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="0" t="n">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94">
         <v>12</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" t="s">
         <v>105</v>
       </c>
-      <c r="E94" s="0" t="s">
+      <c r="E94" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="0" t="n">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
         <v>13</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" t="s">
         <v>109</v>
       </c>
-      <c r="E95" s="0" t="s">
+      <c r="E95" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="0" t="n">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96">
         <v>13</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" t="s">
         <v>109</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="E96" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="0" t="n">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97">
         <v>13</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" t="s">
         <v>109</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="E97" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" s="0" t="n">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98">
         <v>13</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" t="s">
         <v>109</v>
       </c>
-      <c r="E98" s="0" t="s">
+      <c r="E98" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" s="0" t="n">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
         <v>13</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" t="s">
         <v>109</v>
       </c>
-      <c r="E99" s="0" t="s">
+      <c r="E99" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C100" s="0" t="n">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100">
         <v>13</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" t="s">
         <v>109</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="E100" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101" s="0" t="n">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101">
         <v>13</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" t="s">
         <v>109</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="E101" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" s="0" t="n">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102">
         <v>13</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" t="s">
         <v>109</v>
       </c>
-      <c r="E102" s="0" t="s">
+      <c r="E102" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" s="0" t="n">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103">
         <v>13</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" t="s">
         <v>109</v>
       </c>
-      <c r="E103" s="0" t="s">
+      <c r="E103" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" s="0" t="n">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104">
         <v>14</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" t="s">
         <v>119</v>
       </c>
-      <c r="E104" s="0" t="s">
+      <c r="E104" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" s="0" t="n">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
         <v>14</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" t="s">
         <v>119</v>
       </c>
-      <c r="E105" s="0" t="s">
+      <c r="E105" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C106" s="0" t="n">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B106" t="s">
+        <v>4</v>
+      </c>
+      <c r="C106">
         <v>14</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" t="s">
         <v>119</v>
       </c>
-      <c r="E106" s="0" t="s">
+      <c r="E106" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107" s="0" t="n">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B107" t="s">
+        <v>4</v>
+      </c>
+      <c r="C107">
         <v>14</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" t="s">
         <v>119</v>
       </c>
-      <c r="E107" s="0" t="s">
+      <c r="E107" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C108" s="0" t="n">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B108" t="s">
+        <v>4</v>
+      </c>
+      <c r="C108">
         <v>14</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" t="s">
         <v>119</v>
       </c>
-      <c r="E108" s="0" t="s">
+      <c r="E108" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C109" s="0" t="n">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B109" t="s">
+        <v>4</v>
+      </c>
+      <c r="C109">
         <v>14</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" t="s">
         <v>119</v>
       </c>
-      <c r="E109" s="0" t="s">
+      <c r="E109" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C110" s="0" t="n">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C110">
         <v>14</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" t="s">
         <v>119</v>
       </c>
-      <c r="E110" s="0" t="s">
+      <c r="E110" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" s="0" t="n">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B111" t="s">
+        <v>4</v>
+      </c>
+      <c r="C111">
         <v>14</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" t="s">
         <v>119</v>
       </c>
-      <c r="E111" s="0" t="s">
+      <c r="E111" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C112" s="0" t="n">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C112">
         <v>14</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" t="s">
         <v>119</v>
       </c>
-      <c r="E112" s="0" t="s">
+      <c r="E112" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C113" s="0" t="n">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B113" t="s">
+        <v>4</v>
+      </c>
+      <c r="C113">
         <v>14</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" t="s">
         <v>119</v>
       </c>
-      <c r="E113" s="0" t="s">
+      <c r="E113" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C114" s="0" t="n">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B114" t="s">
+        <v>4</v>
+      </c>
+      <c r="C114">
         <v>14</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" t="s">
         <v>119</v>
       </c>
-      <c r="E114" s="0" t="s">
+      <c r="E114" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C115" s="0" t="n">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
         <v>14</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" t="s">
         <v>119</v>
       </c>
-      <c r="E115" s="0" t="s">
+      <c r="E115" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C116" s="0" t="n">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B116" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116">
         <v>14</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" t="s">
         <v>119</v>
       </c>
-      <c r="E116" s="0" t="s">
+      <c r="E116" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C117" s="0" t="n">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B117" t="s">
+        <v>4</v>
+      </c>
+      <c r="C117">
         <v>15</v>
       </c>
       <c r="D117" s="2" t="s">
@@ -2233,39 +2483,39 @@
         <v>134</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C118" s="0" t="n">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
+        <v>4</v>
+      </c>
+      <c r="C118">
         <v>15</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E118" s="0" t="s">
+      <c r="E118" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C119" s="0" t="n">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B119" t="s">
+        <v>4</v>
+      </c>
+      <c r="C119">
         <v>15</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E119" s="0" t="s">
+      <c r="E119" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C120" s="0" t="n">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B120" t="s">
+        <v>4</v>
+      </c>
+      <c r="C120">
         <v>15</v>
       </c>
       <c r="D120" s="2" t="s">
@@ -2275,53 +2525,53 @@
         <v>137</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C121" s="0" t="n">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121">
         <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E121" s="0" t="s">
+      <c r="E121" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C122" s="0" t="n">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B122" t="s">
+        <v>4</v>
+      </c>
+      <c r="C122">
         <v>15</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E122" s="0" t="s">
+      <c r="E122" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C123" s="0" t="n">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>4</v>
+      </c>
+      <c r="C123">
         <v>15</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E123" s="0" t="s">
+      <c r="E123" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C124" s="0" t="n">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B124" t="s">
+        <v>4</v>
+      </c>
+      <c r="C124">
         <v>15</v>
       </c>
       <c r="D124" s="2" t="s">
@@ -2331,11 +2581,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C125" s="0" t="n">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B125" t="s">
+        <v>4</v>
+      </c>
+      <c r="C125">
         <v>15</v>
       </c>
       <c r="D125" s="2" t="s">
@@ -2345,11 +2595,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C126" s="0" t="n">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B126" t="s">
+        <v>4</v>
+      </c>
+      <c r="C126">
         <v>15</v>
       </c>
       <c r="D126" s="2" t="s">
@@ -2359,127 +2609,125 @@
         <v>142</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C127" s="0" t="n">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B127" t="s">
+        <v>4</v>
+      </c>
+      <c r="C127">
         <v>15</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E127" s="0" t="s">
+      <c r="E127" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C128" s="0" t="n">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
         <v>15</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E128" s="0" t="s">
+      <c r="E128" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C129" s="0" t="n">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129">
         <v>15</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E129" s="0" t="s">
+      <c r="E129" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C130" s="0" t="n">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B130" t="s">
+        <v>4</v>
+      </c>
+      <c r="C130">
         <v>15</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E130" s="0" t="s">
+      <c r="E130" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C131" s="0" t="n">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131">
         <v>15</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E131" s="0" t="s">
+      <c r="E131" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C132" s="0" t="n">
+    <row r="132" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B132" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132">
         <v>15</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E132" s="0" t="s">
+      <c r="E132" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C133" s="0" t="n">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133">
         <v>15</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E133" s="0" t="s">
+      <c r="E133" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C134" s="0" t="n">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B134" t="s">
+        <v>4</v>
+      </c>
+      <c r="C134">
         <v>15</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E134" s="0" t="s">
+      <c r="E134" t="s">
         <v>150</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E116"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <autoFilter ref="B2:E116" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>